--- a/AymanMVCProject/assets.xlsx
+++ b/AymanMVCProject/assets.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roger01/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danylokaras/Forecast.Application/AymanMVCProject/AymanMVCProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E85023C-AF08-EE4B-9A10-7AB2C0AA4748}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140"/>
+    <workbookView xWindow="-34480" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="127">
   <si>
     <t>BINANCE_SPOT_BTC_USDT</t>
   </si>
@@ -375,19 +378,56 @@
   </si>
   <si>
     <t>BINANCE_SPOT_HCC_BTC</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>KUCOIN_SPOT_KEY_BTC</t>
+  </si>
+  <si>
+    <t>KUCOIN_SPOT_ARY_BTC</t>
+  </si>
+  <si>
+    <t>KUCOIN_SPOT_HSR_BTC</t>
+  </si>
+  <si>
+    <t>KUCOIN_SPOT_NANO_BTC</t>
+  </si>
+  <si>
+    <t>KUCOIN_SPOT_REQ_BTC</t>
+  </si>
+  <si>
+    <t>KUCOIN_SPOT_TEL_BTC</t>
+  </si>
+  <si>
+    <t>KUCOIN_SPOT_TKY_BTC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -410,8 +450,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,11 +767,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FE5C2C-99E3-0C41-9F61-D560A7B70EBD}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBB428B-2B2F-194D-AAE8-4B542D9A6C53}">
   <dimension ref="A1:A117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A118" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A117" sqref="A1:A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
